--- a/data/trans_orig/P34B01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Dificultad-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>3.381144163978278</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.49576981661093</v>
+        <v>3.495769816610931</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.834243010130284</v>
@@ -660,7 +660,7 @@
         <v>3.225694431423217</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.255179827095223</v>
+        <v>3.255179827095222</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.749474991347149</v>
+        <v>2.782974897631272</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.194808744399087</v>
+        <v>3.196908648559487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.200289925795082</v>
+        <v>3.189421075905222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.65028319760444</v>
+        <v>2.652950720452673</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.929561579511907</v>
+        <v>2.916782847820019</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.848335448273109</v>
+        <v>2.855281138002248</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.771350103752095</v>
+        <v>2.760842469237088</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.09900087348759</v>
+        <v>3.10737261859084</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.087500790426621</v>
+        <v>3.069556646201143</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.135332718348933</v>
+        <v>3.150347542973948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.558740896909551</v>
+        <v>3.550055064574562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.823386401231807</v>
+        <v>3.796717766512629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.028684847003707</v>
+        <v>3.020144522785703</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.269839041853182</v>
+        <v>3.251378464932953</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.297151390630042</v>
+        <v>3.280266192023512</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.01071888114336</v>
+        <v>3.011790041581073</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.345784377930451</v>
+        <v>3.344058055649715</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.423840807330454</v>
+        <v>3.440775688170129</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>3.320202030885048</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>3.436917871999456</v>
+        <v>3.436917871999455</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.417019175785841</v>
+        <v>2.399381987324049</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.190097788693431</v>
+        <v>3.182420096875604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.315686974403989</v>
+        <v>3.323595168091267</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.76126676835031</v>
+        <v>2.769496371408187</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.086001479912113</v>
+        <v>3.086926205498069</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.205950905627765</v>
+        <v>3.20063135883654</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.640363493262862</v>
+        <v>2.647488214900669</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.184548334895561</v>
+        <v>3.189383480510336</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.314698290314141</v>
+        <v>3.32116414051257</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.776336836226028</v>
+        <v>2.781923335373209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.550600333151434</v>
+        <v>3.568457310982148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.722911075169341</v>
+        <v>3.749598574675402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.095666937003887</v>
+        <v>3.096590159719336</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.457992738960046</v>
+        <v>3.462157984805825</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.498938719410005</v>
+        <v>3.492564902571589</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.892277709794631</v>
+        <v>2.89236090957979</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.441557302507837</v>
+        <v>3.456479584998072</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.552382117875727</v>
+        <v>3.555280177580681</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.862325103635618</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.652385995498435</v>
+        <v>3.652385995498434</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.629657839254789</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.264284343374061</v>
+        <v>2.264263752510045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.748922845858393</v>
+        <v>2.771448960199842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.748082799690487</v>
+        <v>3.751966501789335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.631597839516029</v>
+        <v>2.627838098868343</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.646626453641184</v>
+        <v>2.651250938816333</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.493334944040854</v>
+        <v>3.503111235498015</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.500822220813148</v>
+        <v>2.494085049186872</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.764025601819313</v>
+        <v>2.770846252688858</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.675195572494411</v>
+        <v>3.670066961020463</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.646792671922322</v>
+        <v>2.646344997991434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.161719674256022</v>
+        <v>3.162668335616851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.123939288952596</v>
+        <v>4.115998410002721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.994888735914391</v>
+        <v>3.008588131806312</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.08820634194483</v>
+        <v>3.065268572418033</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.794922512998342</v>
+        <v>3.800521569397441</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.76390877071563</v>
+        <v>2.77816803830489</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.067127394249359</v>
+        <v>3.06050336258553</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.912260804498971</v>
+        <v>3.910918947072928</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>3.527016110970334</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>4.077880729302601</v>
+        <v>4.0778807293026</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>2.654273046339223</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.141754433599001</v>
+        <v>2.134430042717387</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.263021465124795</v>
+        <v>3.281449906737134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.254006436531778</v>
+        <v>4.271361087440223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.659037855789058</v>
+        <v>2.684564684320586</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.271218716857566</v>
+        <v>3.270661608665762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.906338357479722</v>
+        <v>3.901130025787119</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.441538719443344</v>
+        <v>2.465749044007156</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.348727291893421</v>
+        <v>3.34734025833586</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.145121332030034</v>
+        <v>4.14435109307459</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.688739572275777</v>
+        <v>2.66560208453152</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.819629717569753</v>
+        <v>3.82050924696299</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.641591115774026</v>
+        <v>4.651967517492247</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.249804725145664</v>
+        <v>3.25700023234641</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.78180470052471</v>
+        <v>3.813021210767162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.249362767309241</v>
+        <v>4.254636142948935</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.839607670305908</v>
+        <v>2.84542714787259</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.726334574356998</v>
+        <v>3.744423222142002</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.400412072112387</v>
+        <v>4.408633743697085</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1096,7 @@
         <v>3.22566436484456</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.731703286248375</v>
+        <v>3.731703286248374</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.533746887559469</v>
+        <v>2.537369470596501</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.19801713725111</v>
+        <v>3.195274690170187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.789523766093301</v>
+        <v>3.803765218630581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.778487256519527</v>
+        <v>2.77042589745903</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.051368867022958</v>
+        <v>3.055952678136017</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.483649634021682</v>
+        <v>3.480283824981774</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.675504336273772</v>
+        <v>2.688028847986863</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.157352400226836</v>
+        <v>3.155180171954196</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.665301921267644</v>
+        <v>3.671481037735743</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.743903949715738</v>
+        <v>2.74775808912498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.400151440103904</v>
+        <v>3.408073211273953</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.007566888993641</v>
+        <v>4.007209906073459</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.968083303096634</v>
+        <v>2.967939768552116</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.250760229030901</v>
+        <v>3.256846660583854</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.650044934679268</v>
+        <v>3.650979631607902</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.822579617033069</v>
+        <v>2.829827886731039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.300087367290575</v>
+        <v>3.290220597400007</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.794237664525598</v>
+        <v>3.801979426695018</v>
       </c>
     </row>
     <row r="19">
